--- a/SDP/Filexel/KeamananUAT.xlsx
+++ b/SDP/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="10" activeTab="14"/>
+    <workbookView windowHeight="16740" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="P2U_Internal" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="RegisterH_Tambah" sheetId="9" r:id="rId9"/>
     <sheet name="RegisterH_PerpanjangPerasingan" sheetId="10" r:id="rId10"/>
     <sheet name="RegisterH_Edit" sheetId="11" r:id="rId11"/>
-    <sheet name="Laporan6A_Tambah" sheetId="12" r:id="rId12"/>
+    <sheet name="Laporan6A" sheetId="12" r:id="rId12"/>
     <sheet name="VerifikasiManajemenBlok" sheetId="13" r:id="rId13"/>
     <sheet name="VerifikasiPenghuniBaru" sheetId="14" r:id="rId14"/>
     <sheet name="RiwayatPenempatan" sheetId="15" r:id="rId15"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="223">
   <si>
     <t>Nama Input</t>
   </si>
@@ -558,16 +558,7 @@
     <t>srt001/03EDT</t>
   </si>
   <si>
-    <t>namaNoregis</t>
-  </si>
-  <si>
-    <t>inputtahun</t>
-  </si>
-  <si>
-    <t>inputbulan</t>
-  </si>
-  <si>
-    <t>noSkAsimilasi</t>
+    <t>nosk</t>
   </si>
   <si>
     <t>tanggalSkAsimilasi</t>
@@ -588,16 +579,10 @@
     <t>keterlibatanLain</t>
   </si>
   <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>Januari</t>
-  </si>
-  <si>
-    <t>SK001</t>
-  </si>
-  <si>
-    <t>12/12/2022'</t>
+    <t>ISMAIL</t>
+  </si>
+  <si>
+    <t>sk009023/o04823</t>
   </si>
   <si>
     <t>Lapas Sukamiskin</t>
@@ -609,13 +594,13 @@
     <t>Eko Cahyono</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>asimilasi di bandung</t>
-  </si>
-  <si>
-    <t>noregis</t>
+    <t>Pihak lain 3</t>
+  </si>
+  <si>
+    <t>Keterangan asimilasi</t>
+  </si>
+  <si>
+    <t>sk009023/o04824</t>
   </si>
   <si>
     <t>Lapas Banceuy</t>
@@ -625,6 +610,9 @@
   </si>
   <si>
     <t>Galih</t>
+  </si>
+  <si>
+    <t>Pihak lain 4</t>
   </si>
   <si>
     <t>filter</t>
@@ -716,9 +704,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -749,16 +737,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,39 +783,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -818,14 +799,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -835,7 +808,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,30 +861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,6 +869,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,13 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +932,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,31 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,103 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1005,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,44 +1286,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,21 +1303,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1387,161 +1325,211 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1594,6 +1582,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2022,9 +2019,9 @@
   <cols>
     <col min="1" max="1" width="59.578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.4296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1484375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="29.0078125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="30.1484375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="29.0078125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="40" customWidth="1"/>
     <col min="6" max="6" width="23.71875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.2890625" style="2" customWidth="1"/>
     <col min="8" max="8" width="27.0078125" style="2" customWidth="1"/>
@@ -2038,16 +2035,16 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -2061,19 +2058,19 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="42" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2090,19 +2087,19 @@
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="42" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2119,19 +2116,19 @@
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="42" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2148,19 +2145,19 @@
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="42" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2177,19 +2174,19 @@
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="42" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2206,19 +2203,19 @@
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="42" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2235,19 +2232,19 @@
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2304,7 +2301,7 @@
       <c r="F1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2324,7 +2321,7 @@
       <c r="F2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="22">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2344,7 +2341,7 @@
       <c r="F3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="22">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2364,7 +2361,7 @@
       <c r="F4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="22">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2477,18 +2474,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:M3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.0078125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.4296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.4296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.484375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.0859375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.0078125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.4296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.1484375" style="1" customWidth="1"/>
@@ -2499,118 +2497,89 @@
     <col min="13" max="13" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="2:13">
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>176</v>
       </c>
+      <c r="C1" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="D1" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A2" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="2:13">
-      <c r="B2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="19">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="2:13">
-      <c r="B3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="19">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2022</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2645,25 +2614,25 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:9">
       <c r="B1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>203</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>108</v>
@@ -2671,13 +2640,13 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:9">
       <c r="B2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>60</v>
@@ -2686,27 +2655,27 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:9">
       <c r="B3" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -2716,18 +2685,18 @@
         <v>96</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:9">
       <c r="B4" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>88</v>
@@ -2740,15 +2709,15 @@
         <v>96</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:9">
       <c r="B5" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>97</v>
@@ -2764,7 +2733,7 @@
         <v>96</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2798,28 +2767,28 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
       <c r="B1" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>57</v>
@@ -2842,16 +2811,16 @@
         <v>85</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:10">
@@ -2874,18 +2843,18 @@
         <v>97</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:10">
       <c r="B4" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>85</v>
@@ -2900,16 +2869,16 @@
         <v>85</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>96</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:10">
@@ -2932,13 +2901,13 @@
         <v>97</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>96</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +2921,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2966,10 +2935,10 @@
         <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2977,13 +2946,13 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +2977,7 @@
     <col min="1" max="1" width="30.4296875" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.859375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.0078125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="33.0078125" style="30" customWidth="1"/>
     <col min="5" max="5" width="33.4296875" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.2890625" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.1484375" style="2" customWidth="1"/>
@@ -3049,13 +3018,13 @@
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3089,7 +3058,7 @@
     <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1484375" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.4296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="40" customWidth="1"/>
     <col min="7" max="7" width="12.4296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3109,7 +3078,7 @@
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="41" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3132,7 +3101,7 @@
       <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3164,13 +3133,13 @@
     <col min="4" max="4" width="16.1484375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.2890625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.0078125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15.0078125" style="34" customWidth="1"/>
     <col min="8" max="8" width="37.859375" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.4296875" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.4296875" style="3" customWidth="1"/>
     <col min="11" max="11" width="19.859375" style="3" customWidth="1"/>
     <col min="12" max="12" width="21.4296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.1484375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="21.1484375" style="30" customWidth="1"/>
     <col min="14" max="14" width="18.1484375" style="2" customWidth="1"/>
     <col min="15" max="15" width="28.2890625" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.4296875" style="3" customWidth="1"/>
@@ -3184,7 +3153,7 @@
       <c r="A1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3199,7 +3168,7 @@
       <c r="F1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="29" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -3208,13 +3177,13 @@
       <c r="I1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="29" t="s">
         <v>76</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -3226,13 +3195,13 @@
       <c r="O1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="29" t="s">
         <v>80</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="29" t="s">
         <v>82</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -3261,7 +3230,7 @@
       <c r="F2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="36">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -3270,16 +3239,16 @@
       <c r="I2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="37">
         <v>10</v>
       </c>
       <c r="K2" s="7">
         <v>2</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="38">
         <v>1</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -3323,7 +3292,7 @@
       <c r="F3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="36">
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -3332,16 +3301,16 @@
       <c r="I3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="37">
         <v>10</v>
       </c>
       <c r="K3" s="7">
         <v>2</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="38">
         <v>1</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -3385,7 +3354,7 @@
       <c r="F4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="36">
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -3394,16 +3363,16 @@
       <c r="I4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="37">
         <v>10</v>
       </c>
       <c r="K4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="38">
         <v>1</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -3447,7 +3416,7 @@
       <c r="F5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="36">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3456,16 +3425,16 @@
       <c r="I5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="37">
         <v>10</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="38">
         <v>1</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -3509,7 +3478,7 @@
       <c r="F6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="36">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -3518,16 +3487,16 @@
       <c r="I6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="37">
         <v>10</v>
       </c>
       <c r="K6" s="7">
         <v>2</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="38">
         <v>1</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -3571,7 +3540,7 @@
       <c r="F7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="36">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -3580,16 +3549,16 @@
       <c r="I7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="37">
         <v>10</v>
       </c>
       <c r="K7" s="7">
         <v>2</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="38">
         <v>1</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -3633,7 +3602,7 @@
       <c r="F8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -3642,16 +3611,16 @@
       <c r="I8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="37">
         <v>10</v>
       </c>
       <c r="K8" s="7">
         <v>2</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="38">
         <v>1</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -3695,7 +3664,7 @@
       <c r="F9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="36">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -3704,16 +3673,16 @@
       <c r="I9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="37">
         <v>10</v>
       </c>
       <c r="K9" s="7">
         <v>2</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="38">
         <v>1</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -3757,7 +3726,7 @@
       <c r="F10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="36">
         <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -3766,16 +3735,16 @@
       <c r="I10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="37">
         <v>10</v>
       </c>
       <c r="K10" s="7">
         <v>2</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="38">
         <v>1</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="39" t="s">
         <v>61</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -3820,7 +3789,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="31.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.0078125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="44.0078125" style="30" customWidth="1"/>
     <col min="3" max="3" width="35.2890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.4296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.2890625" style="1" customWidth="1"/>
@@ -3829,13 +3798,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3855,10 +3824,10 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3903,7 +3872,7 @@
     <col min="2" max="2" width="15.859375" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.1484375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.0078125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="17.0078125" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.1484375" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.4296875" style="2" customWidth="1"/>
@@ -3959,7 +3928,7 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3968,7 +3937,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="26"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -3977,7 +3946,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="26"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4090,7 +4059,7 @@
       <c r="D1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4104,7 +4073,7 @@
       <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="22">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4166,27 +4135,27 @@
       <c r="F1" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="27" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>152</v>
       </c>
       <c r="E2" s="7">
@@ -4210,10 +4179,10 @@
       <c r="B3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="24">
         <v>45021</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="24">
         <v>45021</v>
       </c>
       <c r="E3" s="7">
@@ -4237,10 +4206,10 @@
       <c r="B4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24">
         <v>45022</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="24">
         <v>45022</v>
       </c>
       <c r="E4" s="7">
@@ -4258,10 +4227,10 @@
       <c r="B5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="24">
         <v>45023</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="24">
         <v>45023</v>
       </c>
       <c r="E5" s="15">
@@ -4275,128 +4244,128 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="E6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="E8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="E9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="E11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="E12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="E13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="E14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="E15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="E16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="E17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="E18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="E19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="E20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="E21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="E22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="E23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="E24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="E25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="E26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="E27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="E28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="E29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="E30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="E31" s="22"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="E32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="E33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E34" s="19"/>
-      <c r="J34" s="19"/>
+      <c r="E34" s="22"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="E35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="5:11">
-      <c r="E36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="E36" s="22"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="1" t="s">
         <v>154</v>
       </c>

--- a/SDP/Filexel/KeamananUAT.xlsx
+++ b/SDP/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740" firstSheet="10" activeTab="11"/>
+    <workbookView windowHeight="16760" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="P2U_Internal" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,19 @@
     <sheet name="RegisterH_Tambah" sheetId="9" r:id="rId9"/>
     <sheet name="RegisterH_PerpanjangPerasingan" sheetId="10" r:id="rId10"/>
     <sheet name="RegisterH_Edit" sheetId="11" r:id="rId11"/>
-    <sheet name="Laporan6A" sheetId="12" r:id="rId12"/>
-    <sheet name="VerifikasiManajemenBlok" sheetId="13" r:id="rId13"/>
-    <sheet name="VerifikasiPenghuniBaru" sheetId="14" r:id="rId14"/>
-    <sheet name="RiwayatPenempatan" sheetId="15" r:id="rId15"/>
+    <sheet name="VerifikasiManajemenBlok" sheetId="13" r:id="rId12"/>
+    <sheet name="VerifikasiPenghuniBaru" sheetId="14" r:id="rId13"/>
+    <sheet name="RiwayatPenempatan" sheetId="15" r:id="rId14"/>
+    <sheet name="Laporan6A" sheetId="12" r:id="rId15"/>
+    <sheet name="Laporan6B" sheetId="16" r:id="rId16"/>
+    <sheet name="Laporan6C" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="243">
   <si>
     <t>Nama Input</t>
   </si>
@@ -558,6 +560,90 @@
     <t>srt001/03EDT</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>namaBlok</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>tipeblok</t>
+  </si>
+  <si>
+    <t>jumlahlantai</t>
+  </si>
+  <si>
+    <t>Ubahstatus</t>
+  </si>
+  <si>
+    <t>Blok B</t>
+  </si>
+  <si>
+    <t>Dalam Proses</t>
+  </si>
+  <si>
+    <t>blok cc</t>
+  </si>
+  <si>
+    <t>Di izinkan karena memenuhi syarat</t>
+  </si>
+  <si>
+    <t>blok</t>
+  </si>
+  <si>
+    <t>Blok C</t>
+  </si>
+  <si>
+    <t>Umum</t>
+  </si>
+  <si>
+    <t>MAPENALING</t>
+  </si>
+  <si>
+    <t>nama blok</t>
+  </si>
+  <si>
+    <t>namaWbp</t>
+  </si>
+  <si>
+    <t>noRegis</t>
+  </si>
+  <si>
+    <t>kamar</t>
+  </si>
+  <si>
+    <t>statusVerifikasi</t>
+  </si>
+  <si>
+    <t>BlokMapenaling</t>
+  </si>
+  <si>
+    <t>Blok Mapenaling E</t>
+  </si>
+  <si>
+    <t>test keterangan</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Blok</t>
+  </si>
+  <si>
+    <t>noreg</t>
+  </si>
+  <si>
+    <t>Pidana</t>
+  </si>
+  <si>
+    <t>kadir</t>
+  </si>
+  <si>
+    <t>kesusilaan</t>
+  </si>
+  <si>
     <t>nosk</t>
   </si>
   <si>
@@ -615,88 +701,64 @@
     <t>Pihak lain 4</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>namaBlok</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>tipeblok</t>
-  </si>
-  <si>
-    <t>jumlahlantai</t>
-  </si>
-  <si>
-    <t>Ubahstatus</t>
-  </si>
-  <si>
-    <t>Blok B</t>
-  </si>
-  <si>
-    <t>Dalam Proses</t>
-  </si>
-  <si>
-    <t>blok cc</t>
-  </si>
-  <si>
-    <t>Di izinkan karena memenuhi syarat</t>
-  </si>
-  <si>
-    <t>blok</t>
-  </si>
-  <si>
-    <t>Blok C</t>
-  </si>
-  <si>
-    <t>Umum</t>
-  </si>
-  <si>
-    <t>MAPENALING</t>
-  </si>
-  <si>
-    <t>nama blok</t>
-  </si>
-  <si>
-    <t>namaWbp</t>
-  </si>
-  <si>
-    <t>noRegis</t>
-  </si>
-  <si>
-    <t>kamar</t>
-  </si>
-  <si>
-    <t>statusVerifikasi</t>
-  </si>
-  <si>
-    <t>BlokMapenaling</t>
-  </si>
-  <si>
-    <t>Blok Mapenaling E</t>
-  </si>
-  <si>
-    <t>test keterangan</t>
-  </si>
-  <si>
-    <t>Naga</t>
-  </si>
-  <si>
-    <t>Blok</t>
-  </si>
-  <si>
-    <t>noreg</t>
-  </si>
-  <si>
-    <t>Pidana</t>
-  </si>
-  <si>
-    <t>kadir</t>
-  </si>
-  <si>
-    <t>kesusilaan</t>
+    <t>UraianSingkatKejadian</t>
+  </si>
+  <si>
+    <t>WaktuKejadian</t>
+  </si>
+  <si>
+    <t>Kerusakan</t>
+  </si>
+  <si>
+    <t>TotalKerugian</t>
+  </si>
+  <si>
+    <t>KorbanJiwa Petugas</t>
+  </si>
+  <si>
+    <t>KorbanJiwa Wbp</t>
+  </si>
+  <si>
+    <t>TindakanSementaraYangDilakukan</t>
+  </si>
+  <si>
+    <t>TindakLanjut</t>
+  </si>
+  <si>
+    <t>SumberDana</t>
+  </si>
+  <si>
+    <t>BantuanPihakLain</t>
+  </si>
+  <si>
+    <t>Terjadi Sebuah Banjir Bandang pada saat melakukan kegiatan Pembinaan Narapidana</t>
+  </si>
+  <si>
+    <t>04/04/2023 12:27:03'</t>
+  </si>
+  <si>
+    <t>Pagar Pembatas hancur</t>
+  </si>
+  <si>
+    <t>100 juta</t>
+  </si>
+  <si>
+    <t>Meng evakuasi dan memastikan keselamatan wbp</t>
+  </si>
+  <si>
+    <t>Menunggu instruksi selanjutnya dari pusat</t>
+  </si>
+  <si>
+    <t>Pusat Kementerian hukum</t>
+  </si>
+  <si>
+    <t>bantuan pengamanan dari polri dan bantuan penanggulangan dari basarnas</t>
+  </si>
+  <si>
+    <t>status masih kondusif</t>
+  </si>
+  <si>
+    <t>100.000.000</t>
   </si>
 </sst>
 </file>
@@ -704,9 +766,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -716,6 +778,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -730,13 +799,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -746,24 +808,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,31 +829,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,17 +845,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,7 +861,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,23 +881,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,6 +952,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCEFED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -908,13 +976,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCEFED5"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,43 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,25 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,73 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,13 +1054,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,25 +1346,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1323,17 +1376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1349,17 +1391,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,6 +1411,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1381,124 +1434,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,19 +1569,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1529,136 +1591,142 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2012,251 +2080,251 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="59.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.4296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1484375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="29.0078125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="23.71875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.2890625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.0078125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.2890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="59.578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.4296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.1484375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="29.0078125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="23.71875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.2890625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.0078125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.2890625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2279,92 +2347,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.2890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.4296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.71875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.71875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.1484375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.2890625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.4296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.4296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.71875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.71875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="25">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="25">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="25">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2387,79 +2455,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.71875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.0078125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.0078125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.4296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.71875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.71875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.0078125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.0078125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.4296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="21">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2470,125 +2538,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.484375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.0859375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1484375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.0078125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.71875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.4296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.4296875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2601,139 +2550,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.71875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.71875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="30.578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="28.4296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B1" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B2" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>204</v>
+      <c r="I2" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>204</v>
+      <c r="I3" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>204</v>
+      <c r="I4" s="23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B5" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>204</v>
+      <c r="I5" s="24" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2742,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2755,159 +2704,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.2890625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12.4296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.2890625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="19.0078125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.2890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.2890625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="12.4296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.2890625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="19.0078125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="19.2890625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>216</v>
+      <c r="J2" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>216</v>
+      <c r="J3" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B4" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>216</v>
+      <c r="J4" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>216</v>
+      <c r="J5" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -2935,10 +2884,10 @@
         <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2946,13 +2895,333 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.6953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.484375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.0859375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.4296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.1484375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.0078125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.71875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.4296875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.4296875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>222</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="37.3671875" customWidth="1"/>
+    <col min="2" max="2" width="22.65625" customWidth="1"/>
+    <col min="3" max="3" width="26.171875" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="26.6953125" customWidth="1"/>
+    <col min="7" max="7" width="30.46875" customWidth="1"/>
+    <col min="8" max="8" width="14.3203125" customWidth="1"/>
+    <col min="9" max="9" width="22.0078125" customWidth="1"/>
+    <col min="10" max="10" width="19.921875" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="58.71875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.65625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.15625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.4453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2974,67 +3243,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="30.4296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.859375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.0078125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="33.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.2890625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.2890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.4296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="52.859375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.0078125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.4296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.2890625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="37.2890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,56 +3324,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1484375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.4296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.1484375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="12.4296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3127,645 +3396,645 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.4296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.859375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.4296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.2890625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.0078125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="37.859375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.4296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.4296875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.859375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.4296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.1484375" style="30" customWidth="1"/>
-    <col min="14" max="14" width="18.1484375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="28.2890625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.4296875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="25.0078125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.71875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="13.0078125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.1484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.859375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.4296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.2890625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.0078125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="37.859375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.4296875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.4296875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.859375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.4296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.1484375" style="33" customWidth="1"/>
+    <col min="14" max="14" width="18.1484375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="28.2890625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="16.4296875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="25.0078125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="25.71875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="13.0078125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="25.1484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:20">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:20">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="39">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="40">
         <v>10</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="13">
         <v>2</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="41">
         <v>1</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="13">
         <v>4</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="13">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="39">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="40">
         <v>10</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="13">
         <v>2</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="41">
         <v>1</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="13">
         <v>4</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="13">
         <v>30</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="40">
         <v>10</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="13">
         <v>2</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="41">
         <v>1</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="13">
         <v>30</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="39">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="40">
         <v>10</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="41">
         <v>1</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="13">
         <v>4</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="13">
         <v>30</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="39">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="40">
         <v>10</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="41">
         <v>1</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="13">
         <v>4</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="13">
         <v>30</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="39">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="40">
         <v>10</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="13">
         <v>2</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="41">
         <v>1</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="13">
         <v>4</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="13">
         <v>30</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="39">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="40">
         <v>10</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="13">
         <v>2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="41">
         <v>1</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="13">
         <v>4</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="13">
         <v>30</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="39">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="40">
         <v>10</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="41">
         <v>1</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="13">
         <v>4</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="13">
         <v>30</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="39">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="40">
         <v>10</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="13">
         <v>2</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="41">
         <v>1</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="13">
         <v>4</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="13">
         <v>30</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3788,64 +4057,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.0078125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="35.2890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.4296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.71875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="44.0078125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="35.2890625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.4296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.2890625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.71875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3868,88 +4137,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.859375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.1484375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.0078125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.4296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.859375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.1484375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.0078125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.4296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3970,52 +4239,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.859375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4038,45 +4307,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.4296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4099,274 +4368,274 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.4296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.828125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.0078125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.859375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.0078125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1484375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.0078125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.71875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.859375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.859375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.859375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.71875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.1484375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.4296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.3515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.828125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.0078125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.859375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.0078125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.1484375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="26.0078125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.71875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.859375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27.859375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.859375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="19.71875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="30" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="27">
         <v>45021</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="27">
         <v>45021</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <v>45022</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="27">
         <v>45022</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="13">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="27">
         <v>45023</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="27">
         <v>45023</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="21">
         <v>6</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="E6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="E8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="E9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="E10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="E11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="E12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="E13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="E14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="E15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="E16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="E17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="E18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="E19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="E20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="E21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="E22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="E23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="E24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="E25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="E26" s="25"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="E27" s="25"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="E28" s="25"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="E29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="E30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="E31" s="25"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="E32" s="25"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="E33" s="25"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="E34" s="25"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="E35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="5:11">
-      <c r="E36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="1" t="s">
+      <c r="E36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="4" t="s">
         <v>154</v>
       </c>
     </row>

--- a/SDP/Filexel/KeamananUAT.xlsx
+++ b/SDP/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="12" activeTab="15"/>
+    <workbookView windowHeight="16760" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="P2U_Internal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="252">
   <si>
     <t>Nama Input</t>
   </si>
@@ -758,7 +758,34 @@
     <t>status masih kondusif</t>
   </si>
   <si>
+    <t>jenis kerusuhan</t>
+  </si>
+  <si>
+    <t>indikasi penyebab</t>
+  </si>
+  <si>
+    <t>tindakan sementara</t>
+  </si>
+  <si>
+    <t>bantuan pihak lain</t>
+  </si>
+  <si>
+    <t>Kondisi Akhir</t>
+  </si>
+  <si>
+    <t>tauran</t>
+  </si>
+  <si>
+    <t>06/04/2023 00:00:00'</t>
+  </si>
+  <si>
+    <t>saling ejek</t>
+  </si>
+  <si>
     <t>100.000.000</t>
+  </si>
+  <si>
+    <t>Dapat ditangani</t>
   </si>
 </sst>
 </file>
@@ -766,10 +793,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -807,8 +834,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -822,16 +871,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,6 +919,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -861,7 +934,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,13 +950,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,55 +963,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,19 +1009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1051,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,43 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,31 +1159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,55 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,6 +1373,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1377,6 +1422,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1393,195 +1464,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1591,12 +1618,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,9 +1632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2085,51 +2109,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="59.578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.4296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.1484375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="29.0078125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="23.71875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.2890625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="27.0078125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="24.2890625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="59.578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.4296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.1484375" style="42" customWidth="1"/>
+    <col min="4" max="4" width="29.0078125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="23.71875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.2890625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.0078125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="24.2890625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2141,24 +2165,24 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2170,24 +2194,24 @@
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2199,24 +2223,24 @@
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2228,24 +2252,24 @@
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2257,24 +2281,24 @@
       <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2286,24 +2310,24 @@
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2315,16 +2339,16 @@
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2369,7 +2393,7 @@
       <c r="F1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -2389,7 +2413,7 @@
       <c r="F2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2409,7 +2433,7 @@
       <c r="F3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2429,7 +2453,7 @@
       <c r="F4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2456,78 +2480,78 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.71875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="38.0078125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.0078125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.71875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="38.0078125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.0078125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.4296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.71875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>5</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2551,137 +2575,137 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.71875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.71875" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.4296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="30.578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="28.4296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="30.578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="28.4296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>3</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>1</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2705,157 +2729,157 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.2890625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.4296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.2890625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="19.0078125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="19.2890625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="12.4296875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.2890625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="19.0078125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="19.2890625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2939,39 +2963,39 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C2" t="s">
@@ -2980,25 +3004,25 @@
       <c r="D2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C3" t="s">
@@ -3007,19 +3031,19 @@
       <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3034,7 +3058,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3132,10 +3156,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -3154,15 +3178,15 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>226</v>
@@ -3174,33 +3198,30 @@
         <v>228</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3212,15 +3233,12 @@
         <v>237</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3243,67 +3261,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="30.4296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="52.859375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.0078125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="33.4296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="30.4296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="52.859375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.0078125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="33.4296875" style="8" customWidth="1"/>
     <col min="6" max="6" width="29.2890625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.578125" style="8" customWidth="1"/>
     <col min="9" max="9" width="37.2890625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="23"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3327,7 +3345,7 @@
     <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.1484375" style="4" customWidth="1"/>
     <col min="4" max="5" width="12.4296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="42" customWidth="1"/>
     <col min="7" max="7" width="12.4296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3347,7 +3365,7 @@
       <c r="E1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -3396,81 +3414,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.4296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.859375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.4296875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.2890625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.0078125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="37.859375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.4296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.4296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.859375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.4296875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.2890625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.0078125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="37.859375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.4296875" style="8" customWidth="1"/>
     <col min="10" max="10" width="23.4296875" style="5" customWidth="1"/>
     <col min="11" max="11" width="19.859375" style="5" customWidth="1"/>
     <col min="12" max="12" width="21.4296875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="21.1484375" style="33" customWidth="1"/>
-    <col min="14" max="14" width="18.1484375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="28.2890625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="21.1484375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="18.1484375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="28.2890625" style="8" customWidth="1"/>
     <col min="16" max="16" width="16.4296875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="25.0078125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="25.0078125" style="8" customWidth="1"/>
     <col min="18" max="18" width="25.71875" style="5" customWidth="1"/>
     <col min="19" max="19" width="13.0078125" style="4" customWidth="1"/>
     <col min="20" max="20" width="25.1484375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:20">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="31" t="s">
         <v>82</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -3481,58 +3499,58 @@
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:20">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="39">
         <v>10</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>2</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="40">
         <v>1</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <v>4</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <v>30</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -3543,58 +3561,58 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="39">
         <v>10</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>2</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="40">
         <v>1</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <v>4</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="12">
         <v>30</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -3605,58 +3623,58 @@
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <v>1</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <v>10</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>2</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="40">
         <v>1</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="12">
         <v>4</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <v>30</v>
       </c>
       <c r="S4" s="4" t="s">
@@ -3667,58 +3685,58 @@
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>1</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>10</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>2</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="40">
         <v>1</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>4</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="12">
         <v>30</v>
       </c>
       <c r="S5" s="4" t="s">
@@ -3729,58 +3747,58 @@
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>1</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="39">
         <v>10</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>2</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="40">
         <v>1</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>4</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="12">
         <v>30</v>
       </c>
       <c r="S6" s="4" t="s">
@@ -3791,58 +3809,58 @@
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>1</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="39">
         <v>10</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>2</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="40">
         <v>1</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="12">
         <v>4</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="12">
         <v>30</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -3853,58 +3871,58 @@
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>1</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>10</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>2</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="40">
         <v>1</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="12">
         <v>4</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="12">
         <v>30</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -3915,58 +3933,58 @@
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>1</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="39">
         <v>10</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>2</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="40">
         <v>1</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>4</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <v>30</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -3977,58 +3995,58 @@
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="39">
         <v>10</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>2</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <v>1</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="12">
         <v>4</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>30</v>
       </c>
       <c r="S10" s="4" t="s">
@@ -4057,8 +4075,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="44.0078125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="31.578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="44.0078125" style="32" customWidth="1"/>
     <col min="3" max="3" width="35.2890625" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.4296875" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.2890625" style="4" customWidth="1"/>
@@ -4067,13 +4085,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -4093,10 +4111,10 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4138,87 +4156,87 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.859375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.1484375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.0078125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.4296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.859375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.1484375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.0078125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.4296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4328,7 +4346,7 @@
       <c r="D1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>139</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -4342,7 +4360,7 @@
       <c r="D2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="24">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -4386,255 +4404,255 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>45021</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>45021</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>4</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>45022</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>45022</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>5</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>45023</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>45023</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>6</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="E23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="E28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="E30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="E31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E33" s="25"/>
-      <c r="J33" s="25"/>
+      <c r="E33" s="24"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E34" s="25"/>
-      <c r="J34" s="25"/>
+      <c r="E34" s="24"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="E35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="5:11">
-      <c r="E36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="E36" s="24"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="4" t="s">
         <v>154</v>
       </c>

--- a/SDP/Filexel/KeamananUAT.xlsx
+++ b/SDP/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="12" activeTab="16"/>
+    <workbookView windowHeight="16760" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="P2U_Internal" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,15 @@
     <sheet name="Laporan6A" sheetId="12" r:id="rId15"/>
     <sheet name="Laporan6B" sheetId="16" r:id="rId16"/>
     <sheet name="Laporan6C" sheetId="17" r:id="rId17"/>
+    <sheet name="Laporan6D" sheetId="18" r:id="rId18"/>
+    <sheet name="Laporan6E" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="277">
   <si>
     <t>Nama Input</t>
   </si>
@@ -786,6 +788,81 @@
   </si>
   <si>
     <t>Dapat ditangani</t>
+  </si>
+  <si>
+    <t>jenisSarana</t>
+  </si>
+  <si>
+    <t>Kondisi baik</t>
+  </si>
+  <si>
+    <t>Kondisi rusak</t>
+  </si>
+  <si>
+    <t>usulan</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>deskripsi</t>
+  </si>
+  <si>
+    <t>Kunci Gembok</t>
+  </si>
+  <si>
+    <t>untuk petugas</t>
+  </si>
+  <si>
+    <t>Alat Pemadam</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>tipeSenjata</t>
+  </si>
+  <si>
+    <t>jenisSenjata</t>
+  </si>
+  <si>
+    <t>nomorSenjata</t>
+  </si>
+  <si>
+    <t>masaBerlaku</t>
+  </si>
+  <si>
+    <t>kepemilikan</t>
+  </si>
+  <si>
+    <t>kondisiBaik</t>
+  </si>
+  <si>
+    <t>kondisiRusak</t>
+  </si>
+  <si>
+    <t>jumlahPeluru</t>
+  </si>
+  <si>
+    <t>Senjata Genggam</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>snjkt00932</t>
+  </si>
+  <si>
+    <t>5 tahun</t>
+  </si>
+  <si>
+    <t>TNI</t>
+  </si>
+  <si>
+    <t>OKE</t>
   </si>
 </sst>
 </file>
@@ -794,17 +871,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2D3748"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -829,6 +912,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,18 +954,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,31 +978,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +995,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,6 +1010,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,22 +1040,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,19 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,19 +1134,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1182,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,13 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,85 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,16 +1474,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1422,15 +1505,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1447,21 +1545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1473,167 +1556,173 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1642,115 +1731,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2109,246 +2198,246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="59.578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.4296875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.1484375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="29.0078125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="23.71875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.2890625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="27.0078125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="24.2890625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="59.578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.4296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.1484375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="29.0078125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="23.71875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.2890625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.0078125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="24.2890625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2371,92 +2460,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.1484375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.2890625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.4296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.4296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.71875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.71875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.1484375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.2890625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.4296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.4296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.71875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.71875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="26">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="26">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="26">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2479,79 +2568,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.71875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="38.0078125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.0078125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.4296875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.71875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.71875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="38.0078125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.0078125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.4296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="22">
         <v>5</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="25" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2574,138 +2663,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.71875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="30.578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="28.4296875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.71875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="30.578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28.4296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>3</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2728,158 +2817,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.2890625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="12.4296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.2890625" style="8" customWidth="1"/>
-    <col min="8" max="9" width="19.0078125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="19.2890625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.2890625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="12.4296875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.2890625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="19.0078125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="19.2890625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2947,55 +3036,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.6953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.484375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.0859375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.4296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.1484375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.0078125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.71875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.4296875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.6953125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.484375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.0859375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.4296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.1484375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.0078125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.71875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.4296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C2" t="s">
@@ -3004,25 +3093,25 @@
       <c r="D2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C3" t="s">
@@ -3031,19 +3120,19 @@
       <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3078,37 +3167,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3116,7 +3205,7 @@
       <c r="A2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C2" t="s">
@@ -3158,88 +3247,257 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="58.71875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.65625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.171875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.15625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.4453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1015625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="58.71875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.65625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.171875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28" style="3" customWidth="1"/>
+    <col min="6" max="6" width="26.6953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="53.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.15625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.4453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.921875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="25.2578125" customWidth="1"/>
+    <col min="2" max="2" width="29.6796875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.234375" customWidth="1"/>
+    <col min="6" max="6" width="16.40625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.0078125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.09375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+        <v>274</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>240</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3261,67 +3519,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="30.4296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="52.859375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.0078125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="33.4296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.2890625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.2890625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.4296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="52.859375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="33.0078125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="33.4296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="29.2890625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="37.2890625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3342,56 +3600,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.1484375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="12.4296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.1484375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="12.4296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3414,645 +3672,645 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.4296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.859375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.4296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.2890625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.0078125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="37.859375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.4296875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="23.4296875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19.859375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="21.4296875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="21.1484375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="18.1484375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="28.2890625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="16.4296875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="25.0078125" style="8" customWidth="1"/>
-    <col min="18" max="18" width="25.71875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.0078125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="25.1484375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.4296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21.859375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.4296875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.2890625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.0078125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="37.859375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.4296875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="23.4296875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.859375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="21.4296875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="21.1484375" style="34" customWidth="1"/>
+    <col min="14" max="14" width="18.1484375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="28.2890625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="16.4296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="25.0078125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="25.71875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="13.0078125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="25.1484375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:20">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:20">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="40">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="41">
         <v>10</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="14">
         <v>2</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="42">
         <v>1</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="14">
         <v>4</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="14">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="40">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="41">
         <v>10</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="14">
         <v>2</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="42">
         <v>1</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="14">
         <v>4</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="14">
         <v>30</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="41">
         <v>10</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="14">
         <v>2</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="42">
         <v>1</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="14">
         <v>4</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="14">
         <v>30</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="40">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="41">
         <v>10</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="14">
         <v>2</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="42">
         <v>1</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="14">
         <v>4</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="14">
         <v>30</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="40">
         <v>1</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="41">
         <v>10</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="14">
         <v>2</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="42">
         <v>1</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="14">
         <v>4</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="14">
         <v>30</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="40">
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="41">
         <v>10</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="14">
         <v>2</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="42">
         <v>1</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="14">
         <v>4</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="14">
         <v>30</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="40">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="41">
         <v>10</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="14">
         <v>2</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="42">
         <v>1</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="14">
         <v>4</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="14">
         <v>30</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="40">
         <v>1</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="41">
         <v>10</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="14">
         <v>2</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="42">
         <v>1</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="14">
         <v>4</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="14">
         <v>30</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="40">
         <v>1</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="41">
         <v>10</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="14">
         <v>2</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="42">
         <v>1</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="14">
         <v>4</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="14">
         <v>30</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4075,64 +4333,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="44.0078125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="35.2890625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.4296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.2890625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.71875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="31.578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.0078125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="35.2890625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.4296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.2890625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.71875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4155,88 +4413,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.859375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.1484375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.0078125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12.4296875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.859375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.1484375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.0078125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.4296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4257,52 +4515,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.859375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.859375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4325,45 +4583,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.4296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.4296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4386,274 +4644,274 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.1484375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.4296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.3515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.828125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.0078125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.859375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.0078125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.1484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="26.0078125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.71875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.859375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="27.859375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.859375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="19.71875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.1484375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.4296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.3515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.828125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.0078125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.859375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.0078125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="21.1484375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26.0078125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.71875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.859375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="27.859375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="19.859375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.71875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <v>45021</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="28">
         <v>45021</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <v>45022</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="28">
         <v>45022</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>5</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="22"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <v>45023</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="28">
         <v>45023</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="22">
         <v>6</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="E17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="E19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="E25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="E26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="E27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="E28" s="26"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="E29" s="26"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="E30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="E31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="E32" s="26"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="E33" s="26"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="E34" s="26"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="E35" s="26"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="5:11">
-      <c r="E36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="4" t="s">
+      <c r="E36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="6" t="s">
         <v>154</v>
       </c>
     </row>

--- a/SDP/Filexel/KeamananUAT.xlsx
+++ b/SDP/Filexel/KeamananUAT.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="284">
   <si>
     <t>Nama Input</t>
   </si>
@@ -847,6 +847,18 @@
     <t>jumlahPeluru</t>
   </si>
   <si>
+    <t>tipe senjata</t>
+  </si>
+  <si>
+    <t>jenis senjata</t>
+  </si>
+  <si>
+    <t>jenis Peluru</t>
+  </si>
+  <si>
+    <t>Kepemilikan</t>
+  </si>
+  <si>
     <t>Senjata Genggam</t>
   </si>
   <si>
@@ -863,6 +875,15 @@
   </si>
   <si>
     <t>OKE</t>
+  </si>
+  <si>
+    <t>Ketapel Besi</t>
+  </si>
+  <si>
+    <t>Karet</t>
+  </si>
+  <si>
+    <t>kETAPEL MILIK TNI</t>
   </si>
 </sst>
 </file>
@@ -872,8 +893,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -917,30 +938,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,7 +979,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,9 +1030,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,38 +1059,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,37 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,19 +1131,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,7 +1167,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,43 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1215,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,31 +1281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,6 +1477,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1470,21 +1506,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,16 +1540,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1544,154 +1574,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1701,15 +1722,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,246 +2216,246 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="59.578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.4296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.1484375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="29.0078125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="23.71875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.2890625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="27.0078125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="24.2890625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="59.578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.4296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.1484375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="29.0078125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="23.71875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.2890625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.0078125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.2890625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2460,92 +2478,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="27.1484375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.2890625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.4296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.4296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.71875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.71875" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.1484375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.2890625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.4296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.4296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.71875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.71875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="3:8">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2568,79 +2586,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.71875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="38.0078125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="30.0078125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.4296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.71875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.71875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.0078125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.0078125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.4296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:6">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>5</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2663,138 +2681,138 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.71875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="30.578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="28.4296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.71875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="30.578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="28.4296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:9">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>1</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2817,158 +2835,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.859375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.2890625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="12.4296875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.2890625" style="10" customWidth="1"/>
-    <col min="8" max="9" width="19.0078125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="19.2890625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.0078125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.859375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.2890625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="12.4296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.2890625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="19.0078125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="19.2890625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:10">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3036,55 +3054,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.6953125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.484375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.0859375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.4296875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.1484375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17.0078125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.71875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.4296875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28.515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.6953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.484375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.0859375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.4296875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.1484375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.0078125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.71875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.4296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.4296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C2" t="s">
@@ -3093,25 +3111,25 @@
       <c r="D2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C3" t="s">
@@ -3120,19 +3138,19 @@
       <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3167,37 +3185,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3205,7 +3223,7 @@
       <c r="A2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C2" t="s">
@@ -3253,81 +3271,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="58.71875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.65625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.6953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="53.8984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.15625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.4453125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.921875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.1015625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="58.71875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.65625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.15625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.4453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3422,10 +3440,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -3439,10 +3457,16 @@
     <col min="7" max="7" width="21.8671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.09375" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.3515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="16.40625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.9296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="20.3125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>263</v>
       </c>
@@ -3470,22 +3494,37 @@
       <c r="I1" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -3497,7 +3536,22 @@
         <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3519,67 +3573,67 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="30.4296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="52.859375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="33.0078125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="33.4296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="29.2890625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="37.2890625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="30.4296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="52.859375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33.0078125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="33.4296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.2890625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="37.2890625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3600,56 +3654,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.1484375" style="6" customWidth="1"/>
-    <col min="4" max="5" width="12.4296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.1484375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="12.4296875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.4296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3672,645 +3726,645 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.4296875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.859375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.4296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.2890625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.0078125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="37.859375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.4296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="23.4296875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.859375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="21.4296875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="21.1484375" style="34" customWidth="1"/>
-    <col min="14" max="14" width="18.1484375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="28.2890625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="16.4296875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="25.0078125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="25.71875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.0078125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="25.1484375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.4296875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.859375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.4296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.2890625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.0078125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="37.859375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.4296875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="23.4296875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.859375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="21.4296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.1484375" style="33" customWidth="1"/>
+    <col min="14" max="14" width="18.1484375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="28.2890625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="16.4296875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="25.0078125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="25.71875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="13.0078125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="25.1484375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:20">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:20">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="40">
         <v>10</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>2</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="41">
         <v>1</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <v>4</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>30</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="39">
         <v>1</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="40">
         <v>10</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>2</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="41">
         <v>1</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>4</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>30</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="40">
         <v>10</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>2</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="41">
         <v>1</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>30</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>1</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="40">
         <v>10</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="41">
         <v>1</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>4</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>30</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="40">
         <v>10</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="41">
         <v>1</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>4</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>30</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <v>1</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="40">
         <v>10</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>2</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="41">
         <v>1</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>4</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="13">
         <v>30</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>1</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>10</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>2</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="41">
         <v>1</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>4</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="13">
         <v>30</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <v>1</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="40">
         <v>10</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="41">
         <v>1</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>4</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="13">
         <v>30</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:20">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>1</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <v>10</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>2</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="41">
         <v>1</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>4</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="13">
         <v>30</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4333,64 +4387,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="31.578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="44.0078125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="35.2890625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.4296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.2890625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.71875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="31.578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="44.0078125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="35.2890625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.4296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.2890625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.71875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.4296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4413,88 +4467,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.859375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.1484375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.0078125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.0078125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.4296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.4296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.859375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.1484375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.0078125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="17.0078125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.1484375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.4296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4515,52 +4569,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.859375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.1484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.4296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.859375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4583,45 +4637,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.4296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.4296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.4296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.4296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="3:6">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4644,274 +4698,274 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.1484375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.4296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.3515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.828125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.0078125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.859375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.0078125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21.1484375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="26.0078125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.71875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.859375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="27.859375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="19.859375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.71875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.1484375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.4296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.3515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.828125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.0078125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.859375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.0078125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.1484375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="26.0078125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.71875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5.859375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="27.859375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.859375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="19.71875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>45021</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="27">
         <v>45021</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>45022</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>45022</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>5</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>45023</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>45023</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>6</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="E11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="E28" s="25"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="E29" s="25"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="E30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="E31" s="25"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="E32" s="25"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="E33" s="25"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" ht="17.25" customHeight="1" spans="5:10">
-      <c r="E35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="E35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" ht="17.25" customHeight="1" spans="5:11">
-      <c r="E36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="6" t="s">
+      <c r="E36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="5" t="s">
         <v>154</v>
       </c>
     </row>

--- a/SDP/Filexel/KeamananUAT.xlsx
+++ b/SDP/Filexel/KeamananUAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="13" activeTab="18"/>
+    <workbookView windowHeight="16760" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="P2U_Internal" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,15 @@
     <sheet name="Laporan6C" sheetId="17" r:id="rId17"/>
     <sheet name="Laporan6D" sheetId="18" r:id="rId18"/>
     <sheet name="Laporan6E" sheetId="19" r:id="rId19"/>
+    <sheet name="Laporan6F" sheetId="20" r:id="rId20"/>
+    <sheet name="Laporan7A" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="290">
   <si>
     <t>Nama Input</t>
   </si>
@@ -884,6 +886,24 @@
   </si>
   <si>
     <t>kETAPEL MILIK TNI</t>
+  </si>
+  <si>
+    <t>BarangTemuan</t>
+  </si>
+  <si>
+    <t>Pemilik</t>
+  </si>
+  <si>
+    <t>Mp 1</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>IRIANA TAMBa BINTI waloyo</t>
+  </si>
+  <si>
+    <t>Musnahkan</t>
   </si>
 </sst>
 </file>
@@ -891,10 +911,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -930,9 +950,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,11 +965,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,24 +981,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,6 +1011,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1007,38 +1034,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,17 +1056,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,13 +1133,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1187,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,19 +1247,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,49 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,49 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,15 +1521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1542,9 +1553,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,144 +1579,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1712,13 +1732,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3442,7 +3462,7 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -3637,6 +3657,165 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <v>19</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.0546875" customWidth="1"/>
+    <col min="2" max="2" width="28.8984375" customWidth="1"/>
+    <col min="3" max="3" width="31.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
